--- a/Journal Log (1).xlsx
+++ b/Journal Log (1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="207">
   <si>
     <t>Task</t>
   </si>
@@ -408,6 +408,27 @@
   </si>
   <si>
     <t>Attempted to debug PCB and identify root failure cause.</t>
+  </si>
+  <si>
+    <t>Purchasing acrylic</t>
+  </si>
+  <si>
+    <t>Compressing breadboard design/setting up functional prototype</t>
+  </si>
+  <si>
+    <t>Functional Prototype Setup + monitoring 3D print</t>
+  </si>
+  <si>
+    <t>Making speaker assembly</t>
+  </si>
+  <si>
+    <t>Final debugging of Tiva and ESP interface</t>
+  </si>
+  <si>
+    <t>Filming video demo</t>
+  </si>
+  <si>
+    <t>Updating documentation</t>
   </si>
   <si>
     <t>hardware programming research &amp; setup</t>
@@ -32834,7 +32855,7 @@
       </c>
       <c r="D2" s="39">
         <f>SUM(C:C)</f>
-        <v>143.25</v>
+        <v>163.25</v>
       </c>
     </row>
     <row r="3">
@@ -33477,32 +33498,81 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="45"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="49">
+        <v>45382.0</v>
+      </c>
+      <c r="C59" s="47">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="45"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="48">
+        <v>45386.0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="45"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="48">
+        <v>45391.0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="45"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="48">
+        <v>45393.0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="45"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="48">
+        <v>45394.0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="45"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="48">
+        <v>45394.0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="45"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="48">
+        <v>45396.0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="45"/>
@@ -37243,6 +37313,10 @@
     <row r="1000">
       <c r="B1000" s="45"/>
       <c r="C1000" s="3"/>
+    </row>
+    <row r="1001">
+      <c r="B1001" s="45"/>
+      <c r="C1001" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37296,7 +37370,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B3" s="40">
         <v>45596.0</v>
@@ -37308,7 +37382,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B4" s="40">
         <v>45598.0</v>
@@ -37320,7 +37394,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B5" s="40">
         <v>45598.0</v>
@@ -37332,7 +37406,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B6" s="40">
         <v>45598.0</v>
@@ -37344,7 +37418,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B7" s="40">
         <v>45599.0</v>
@@ -37356,7 +37430,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B8" s="40">
         <v>45601.0</v>
@@ -37368,7 +37442,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B9" s="40">
         <v>45612.0</v>
@@ -37380,7 +37454,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B10" s="40">
         <v>45613.0</v>
@@ -37392,7 +37466,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B11" s="40">
         <v>45613.0</v>
@@ -37404,7 +37478,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B12" s="40">
         <v>45621.0</v>
@@ -37416,7 +37490,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B13" s="40">
         <v>45622.0</v>
@@ -37428,7 +37502,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B14" s="40">
         <v>45622.0</v>
@@ -37440,7 +37514,7 @@
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B15" s="40">
         <v>45300.0</v>
@@ -37452,7 +37526,7 @@
     </row>
     <row r="16">
       <c r="A16" s="55" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B16" s="40">
         <v>45301.0</v>
@@ -37464,7 +37538,7 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B17" s="56">
         <v>45307.0</v>
@@ -37476,7 +37550,7 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B18" s="56">
         <v>45307.0</v>
@@ -37488,7 +37562,7 @@
     </row>
     <row r="19">
       <c r="A19" s="53" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B19" s="56">
         <v>45308.0</v>
@@ -37500,7 +37574,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B20" s="56">
         <v>45316.0</v>
@@ -37512,7 +37586,7 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B21" s="56">
         <v>45318.0</v>
@@ -37524,7 +37598,7 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B22" s="56">
         <v>45319.0</v>
@@ -37536,7 +37610,7 @@
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B23" s="49">
         <v>45327.0</v>
@@ -37547,7 +37621,7 @@
     </row>
     <row r="24">
       <c r="A24" s="35" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B24" s="49">
         <v>45334.0</v>
@@ -37558,7 +37632,7 @@
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B25" s="49">
         <v>45335.0</v>
@@ -37569,7 +37643,7 @@
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B26" s="49">
         <v>45340.0</v>
@@ -37580,7 +37654,7 @@
     </row>
     <row r="27">
       <c r="A27" s="35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B27" s="49">
         <v>45343.0</v>
@@ -37591,7 +37665,7 @@
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B28" s="49">
         <v>45343.0</v>
@@ -37602,7 +37676,7 @@
     </row>
     <row r="29">
       <c r="A29" s="35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B29" s="49">
         <v>45344.0</v>
@@ -37613,7 +37687,7 @@
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B30" s="49">
         <v>45344.0</v>
@@ -37624,7 +37698,7 @@
     </row>
     <row r="31">
       <c r="A31" s="35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B31" s="49">
         <v>45345.0</v>
@@ -37635,7 +37709,7 @@
     </row>
     <row r="32">
       <c r="A32" s="35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B32" s="49">
         <v>45345.0</v>
@@ -37646,7 +37720,7 @@
     </row>
     <row r="33">
       <c r="A33" s="35" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B33" s="49">
         <v>45352.0</v>
@@ -37657,10 +37731,10 @@
     </row>
     <row r="34">
       <c r="A34" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C34" s="47">
         <v>30.0</v>
@@ -37668,7 +37742,7 @@
     </row>
     <row r="35">
       <c r="A35" s="35" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B35" s="49">
         <v>45362.0</v>
@@ -37679,7 +37753,7 @@
     </row>
     <row r="36">
       <c r="A36" s="35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B36" s="49">
         <v>45373.0</v>
@@ -37690,7 +37764,7 @@
     </row>
     <row r="37">
       <c r="A37" s="35" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B37" s="49">
         <v>45374.0</v>
@@ -37701,7 +37775,7 @@
     </row>
     <row r="38">
       <c r="A38" s="35" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B38" s="49">
         <v>45375.0</v>
@@ -40641,7 +40715,7 @@
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B3" s="58">
         <v>45592.0</v>
@@ -40653,7 +40727,7 @@
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B4" s="58">
         <v>45594.0</v>
@@ -40665,7 +40739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B5" s="58">
         <v>45596.0</v>
@@ -40677,7 +40751,7 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B6" s="58">
         <v>45596.0</v>
@@ -40689,7 +40763,7 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B7" s="58">
         <v>45596.0</v>
@@ -40701,7 +40775,7 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B8" s="58">
         <v>45599.0</v>
@@ -40713,7 +40787,7 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B9" s="58">
         <v>45599.0</v>
@@ -40725,7 +40799,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B10" s="58">
         <v>45601.0</v>
@@ -40737,7 +40811,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B11" s="58">
         <v>45601.0</v>
@@ -40749,7 +40823,7 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B12" s="58">
         <v>45601.0</v>
@@ -40761,7 +40835,7 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B13" s="58">
         <v>45610.0</v>
@@ -40797,7 +40871,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B16" s="58">
         <v>45620.0</v>
@@ -40809,7 +40883,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B17" s="58">
         <v>45622.0</v>
@@ -40821,7 +40895,7 @@
     </row>
     <row r="18">
       <c r="A18" s="59" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B18" s="60">
         <v>45605.0</v>
@@ -40833,7 +40907,7 @@
     </row>
     <row r="19">
       <c r="A19" s="59" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B19" s="60">
         <v>45300.0</v>
@@ -40917,7 +40991,7 @@
     </row>
     <row r="26">
       <c r="A26" s="59" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B26" s="60">
         <v>45317.0</v>
@@ -40953,7 +41027,7 @@
     </row>
     <row r="29">
       <c r="A29" s="59" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B29" s="60">
         <v>45319.0</v>
@@ -40965,7 +41039,7 @@
     </row>
     <row r="30">
       <c r="A30" s="59" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B30" s="60">
         <v>45319.0</v>
@@ -40977,7 +41051,7 @@
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B31" s="56">
         <v>45337.0</v>
@@ -40989,7 +41063,7 @@
     </row>
     <row r="32">
       <c r="A32" s="53" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B32" s="56">
         <v>45338.0</v>
@@ -41000,7 +41074,7 @@
     </row>
     <row r="33">
       <c r="A33" s="47" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B33" s="56">
         <v>45342.0</v>
@@ -41011,7 +41085,7 @@
     </row>
     <row r="34">
       <c r="A34" s="47" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B34" s="56">
         <v>45343.0</v>
@@ -41022,7 +41096,7 @@
     </row>
     <row r="35">
       <c r="A35" s="47" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B35" s="56">
         <v>45344.0</v>
@@ -41033,7 +41107,7 @@
     </row>
     <row r="36">
       <c r="A36" s="47" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B36" s="56">
         <v>45344.0</v>
@@ -41044,7 +41118,7 @@
     </row>
     <row r="37">
       <c r="A37" s="47" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B37" s="56">
         <v>45345.0</v>
@@ -41055,7 +41129,7 @@
     </row>
     <row r="38">
       <c r="A38" s="47" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B38" s="56">
         <v>45345.0</v>
@@ -41066,7 +41140,7 @@
     </row>
     <row r="39">
       <c r="A39" s="47" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B39" s="56">
         <v>45345.0</v>
@@ -41077,7 +41151,7 @@
     </row>
     <row r="40">
       <c r="A40" s="47" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B40" s="56">
         <v>45347.0</v>
@@ -41088,7 +41162,7 @@
     </row>
     <row r="41">
       <c r="A41" s="47" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B41" s="56">
         <v>45358.0</v>
@@ -41099,7 +41173,7 @@
     </row>
     <row r="42">
       <c r="A42" s="47" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B42" s="56">
         <v>45371.0</v>
@@ -41110,7 +41184,7 @@
     </row>
     <row r="43">
       <c r="A43" s="47" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B43" s="56">
         <v>45371.0</v>
@@ -41121,7 +41195,7 @@
     </row>
     <row r="44">
       <c r="A44" s="47" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B44" s="56">
         <v>45373.0</v>
@@ -41132,7 +41206,7 @@
     </row>
     <row r="45">
       <c r="A45" s="47" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B45" s="56">
         <v>45374.0</v>
@@ -41143,7 +41217,7 @@
     </row>
     <row r="46">
       <c r="A46" s="47" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B46" s="56">
         <v>45374.0</v>
@@ -41154,7 +41228,7 @@
     </row>
     <row r="47">
       <c r="A47" s="47" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B47" s="56">
         <v>45375.0</v>
